--- a/Sketches/colors.xlsx
+++ b/Sketches/colors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franziska\Desktop\MU\Diving into UX\Interactive Infographic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franziska\Desktop\Info_Passwords\Sketches\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>password related</t>
-  </si>
-  <si>
-    <t>easy alphanumeric</t>
-  </si>
-  <si>
     <t>animal</t>
   </si>
   <si>
@@ -41,15 +35,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>cool / macho</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>nerdy / pop cultural</t>
-  </si>
-  <si>
     <t>fluffy</t>
   </si>
   <si>
@@ -83,7 +71,19 @@
     <t>#8AFFD2</t>
   </si>
   <si>
-    <t>rebellious / rude</t>
+    <t>password-related</t>
+  </si>
+  <si>
+    <t>simple-alphanumeric</t>
+  </si>
+  <si>
+    <t>cool-macho</t>
+  </si>
+  <si>
+    <t>rebellious-rude</t>
+  </si>
+  <si>
+    <t>nerdy-pop</t>
   </si>
 </sst>
 </file>
@@ -438,89 +438,92 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Sketches/colors.xlsx
+++ b/Sketches/colors.xlsx
@@ -41,36 +41,9 @@
     <t>fluffy</t>
   </si>
   <si>
-    <t>#ED4C4C</t>
-  </si>
-  <si>
     <t>#F7931E</t>
   </si>
   <si>
-    <t>#F9F046</t>
-  </si>
-  <si>
-    <t>#4BF970</t>
-  </si>
-  <si>
-    <t>#3A9164</t>
-  </si>
-  <si>
-    <t>#6666CC</t>
-  </si>
-  <si>
-    <t>#9E16EF</t>
-  </si>
-  <si>
-    <t>#FF33FF</t>
-  </si>
-  <si>
-    <t>#00FFFF</t>
-  </si>
-  <si>
-    <t>#8AFFD2</t>
-  </si>
-  <si>
     <t>password-related</t>
   </si>
   <si>
@@ -84,6 +57,33 @@
   </si>
   <si>
     <t>nerdy-pop</t>
+  </si>
+  <si>
+    <t>#00DFD4</t>
+  </si>
+  <si>
+    <t>#ADFFFB</t>
+  </si>
+  <si>
+    <t>#662D91</t>
+  </si>
+  <si>
+    <t>#9D79B9</t>
+  </si>
+  <si>
+    <t>#FF00DF</t>
+  </si>
+  <si>
+    <t>#FF97CE</t>
+  </si>
+  <si>
+    <t>#FFD319</t>
+  </si>
+  <si>
+    <t>#12B20F</t>
+  </si>
+  <si>
+    <t>#65FF61</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C88A97-C669-4369-8746-923386491045}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,18 +448,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -483,15 +483,15 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -499,15 +499,15 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -515,15 +515,15 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Sketches/colors.xlsx
+++ b/Sketches/colors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>animal</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>#65FF61</t>
+  </si>
+  <si>
+    <t>using personal names</t>
+  </si>
+  <si>
+    <t>fruits, fast food etc.</t>
+  </si>
+  <si>
+    <t>insulting or rude words</t>
+  </si>
+  <si>
+    <t>self-related, kind of arrogant</t>
+  </si>
+  <si>
+    <t>references to star wars etc.</t>
+  </si>
+  <si>
+    <t>cute things like cats</t>
+  </si>
+  <si>
+    <t>sport-related words</t>
+  </si>
+  <si>
+    <t>related to the term password</t>
+  </si>
+  <si>
+    <t>using letters and numbers</t>
+  </si>
+  <si>
+    <t>using animal names</t>
   </si>
 </sst>
 </file>
@@ -435,98 +465,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C88A97-C669-4369-8746-923386491045}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:D10">
+    <sortCondition ref="D10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>